--- a/files/TableDesignBankingApplication.xlsx
+++ b/files/TableDesignBankingApplication.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\ISS_BankApplication_UI\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Banking-Application\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594415E7-5CE9-4061-8493-80F622510141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F72C4D-6C0E-4C3C-BB21-01364AA64A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC1A0F67-2908-4DA1-B8CB-2B31B9B13C4A}"/>
+    <workbookView xWindow="2415" yWindow="3750" windowWidth="21600" windowHeight="11295" xr2:uid="{CC1A0F67-2908-4DA1-B8CB-2B31B9B13C4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Fields</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>HasCurrentAccount (bool)</t>
+  </si>
+  <si>
+    <t>transaction completed ( True | false )</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB3379A-0B2C-4AA1-B96E-9E5D398C8D3D}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="124" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,25 +707,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
         <v>28</v>
